--- a/Splitwise clone tables.xlsx
+++ b/Splitwise clone tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siryu\Documents\GitHub\Splitwise-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B0107-B671-4A46-B380-EBF1B3266A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BDE0B-A153-47D8-81C0-449D81D3B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="2895" windowWidth="20970" windowHeight="15435" xr2:uid="{3E216783-B811-444F-B902-6FF991A4A2CA}"/>
+    <workbookView xWindow="15570" yWindow="3090" windowWidth="20970" windowHeight="15435" xr2:uid="{3E216783-B811-444F-B902-6FF991A4A2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction table" sheetId="1" r:id="rId1"/>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D84BF7-FA04-4D51-B6AE-DE699D88E726}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,7 +650,7 @@
       </c>
       <c r="B8" s="1">
         <f ca="1">NOW()</f>
-        <v>45467.510117245372</v>
+        <v>45470.531574421293</v>
       </c>
     </row>
   </sheetData>

--- a/Splitwise clone tables.xlsx
+++ b/Splitwise clone tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siryu\Documents\GitHub\Splitwise-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BDE0B-A153-47D8-81C0-449D81D3B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA2861-A3EC-4B71-99C9-D7CF2B7FDC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15570" yWindow="3090" windowWidth="20970" windowHeight="15435" xr2:uid="{3E216783-B811-444F-B902-6FF991A4A2CA}"/>
+    <workbookView xWindow="7440" yWindow="2940" windowWidth="20970" windowHeight="15435" xr2:uid="{3E216783-B811-444F-B902-6FF991A4A2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Transaction table" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>Transaction Item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Paid by</t>
   </si>
@@ -50,9 +47,6 @@
     <t>For</t>
   </si>
   <si>
-    <t>Equal / Unequal</t>
-  </si>
-  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>to HKD</t>
   </si>
   <si>
-    <t>Date / Time</t>
-  </si>
-  <si>
     <t>Automatic</t>
   </si>
   <si>
@@ -108,6 +99,36 @@
   </si>
   <si>
     <t>Updated</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Manual / Automatic</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;Float&gt;</t>
   </si>
 </sst>
 </file>
@@ -480,9 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D84BF7-FA04-4D51-B6AE-DE699D88E726}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,56 +516,91 @@
     <col min="5" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -562,37 +620,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -615,15 +673,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -631,26 +689,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <f ca="1">NOW()</f>
-        <v>45470.531574421293</v>
+        <v>45470.683833680552</v>
       </c>
     </row>
   </sheetData>
